--- a/assets/excel/data_staff.xlsx
+++ b/assets/excel/data_staff.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -29,37 +29,313 @@
     <t>Position</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
+    <t>Amy Amadea</t>
+  </si>
+  <si>
+    <t>aamadea@kemana.com</t>
+  </si>
+  <si>
+    <t>Backend Developer</t>
+  </si>
+  <si>
+    <t>Kemana Bandung</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Anan Fauzi</t>
+  </si>
+  <si>
+    <t>afauzi@kemana.com</t>
+  </si>
+  <si>
+    <t>Kemana Jakarta</t>
+  </si>
+  <si>
+    <t>Ansyori B</t>
+  </si>
+  <si>
+    <t>ansyori@kemana.com</t>
+  </si>
+  <si>
+    <t>Arvin Arvin Kurniawan</t>
+  </si>
+  <si>
+    <t>akurniawan@kemana.com</t>
+  </si>
+  <si>
+    <t>Office Manager</t>
+  </si>
+  <si>
+    <t>Ashadi Muliawan</t>
+  </si>
+  <si>
+    <t>amuliawan@kemana.com</t>
+  </si>
+  <si>
+    <t>Bobby Brillian Yerikho</t>
+  </si>
+  <si>
+    <t>bbyerikho@kemana.com</t>
+  </si>
+  <si>
+    <t>Budi Hriyana</t>
+  </si>
+  <si>
+    <t>bhariyana@kemana.com</t>
+  </si>
+  <si>
+    <t>Christopher Benz</t>
+  </si>
+  <si>
+    <t>cbenz@kemana.com</t>
+  </si>
+  <si>
+    <t>Cindy Kitty Heronita</t>
+  </si>
+  <si>
+    <t>ckitty@kemana.com</t>
+  </si>
+  <si>
+    <t>Cipto Raharjo</t>
+  </si>
+  <si>
+    <t>craharjo@kemana.com</t>
+  </si>
+  <si>
+    <t>Didi Kusnadi</t>
+  </si>
+  <si>
+    <t>dkusnadi@kemana.com</t>
+  </si>
+  <si>
+    <t>Didiet Nur Cahyanto</t>
+  </si>
+  <si>
+    <t>didiet@kemana.com</t>
+  </si>
+  <si>
+    <t>Edi Suryadi</t>
+  </si>
+  <si>
+    <t>esuryadi@kemana.com</t>
+  </si>
+  <si>
+    <t>Fajar Indra</t>
+  </si>
+  <si>
+    <t>findra@kemana.com</t>
+  </si>
+  <si>
+    <t>Fikri Abdilah</t>
+  </si>
+  <si>
+    <t>fabdilah@kemana.com</t>
+  </si>
+  <si>
+    <t>Mobile Developer</t>
+  </si>
+  <si>
     <t>Firman Alhadiansyah</t>
   </si>
   <si>
     <t>falhadiansyah@kemana.com</t>
   </si>
   <si>
-    <t>Backend Developer</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Ujang</t>
-  </si>
-  <si>
-    <t>ujang@gmail.com</t>
+    <t>Gen Gen Fikri Adam</t>
+  </si>
+  <si>
+    <t>gfadam@kemana.com</t>
+  </si>
+  <si>
+    <t>Hafizh Fathir Firdaus</t>
+  </si>
+  <si>
+    <t>hffirdaus@kemana.com</t>
+  </si>
+  <si>
+    <t>Henry Wongkar</t>
+  </si>
+  <si>
+    <t>hwongkar@kemana.com</t>
+  </si>
+  <si>
+    <t>Hernady Latip</t>
+  </si>
+  <si>
+    <t>hlatip@kemana.com</t>
+  </si>
+  <si>
+    <t>Herwandi</t>
+  </si>
+  <si>
+    <t>herwandi@kemana.com</t>
+  </si>
+  <si>
+    <t>Imam Kusuma</t>
+  </si>
+  <si>
+    <t>ikusuma@kemana.com</t>
+  </si>
+  <si>
+    <t>Irman Pambudi</t>
+  </si>
+  <si>
+    <t>ipambudi@kemana.com</t>
+  </si>
+  <si>
+    <t>Jeffry Yudha Putra</t>
+  </si>
+  <si>
+    <t>jyputra@kemana.com</t>
+  </si>
+  <si>
+    <t>Kamaludin</t>
+  </si>
+  <si>
+    <t>kamaludin@kemana.com</t>
+  </si>
+  <si>
+    <t>Kevin Gosal</t>
+  </si>
+  <si>
+    <t>kgosal@kemana.com</t>
+  </si>
+  <si>
+    <t>Kurniawan</t>
+  </si>
+  <si>
+    <t>kurniawan@kemana.com</t>
+  </si>
+  <si>
+    <t>Mahardhika Putra Sulistyo</t>
+  </si>
+  <si>
+    <t>mpsulistyo@kemana.com</t>
+  </si>
+  <si>
+    <t>Miranitha Fasha</t>
+  </si>
+  <si>
+    <t>mfasha@kemana.com</t>
+  </si>
+  <si>
+    <t>Muttaqiin</t>
+  </si>
+  <si>
+    <t>muttaqiin@kemana.com</t>
+  </si>
+  <si>
+    <t>Norisa Rorah</t>
+  </si>
+  <si>
+    <t>nrorah@kemana.com</t>
+  </si>
+  <si>
+    <t>Pendi</t>
+  </si>
+  <si>
+    <t>pendi@kemana.com</t>
+  </si>
+  <si>
+    <t>Ratna Puri Effendi</t>
+  </si>
+  <si>
+    <t>rpeffendi@kemana.com</t>
   </si>
   <si>
     <t>Frontend Developer</t>
   </si>
   <si>
-    <t>Udin Cihuahua</t>
-  </si>
-  <si>
-    <t>udin@gmail.com</t>
-  </si>
-  <si>
-    <t>UX/UI Designer</t>
+    <t>Ratu Dita</t>
+  </si>
+  <si>
+    <t>rdita@kemana.com</t>
+  </si>
+  <si>
+    <t>Rizal Fauzie Ridwan</t>
+  </si>
+  <si>
+    <t>rfridwan@kemana.com</t>
+  </si>
+  <si>
+    <t>Romauli Oktohana</t>
+  </si>
+  <si>
+    <t>mhana@kemana.com</t>
+  </si>
+  <si>
+    <t>Ryan Permana</t>
+  </si>
+  <si>
+    <t>rpermana@kemana.com</t>
+  </si>
+  <si>
+    <t>Saiful Fahamsyah</t>
+  </si>
+  <si>
+    <t>sfahamsyah@kemana.com</t>
+  </si>
+  <si>
+    <t>Sapta Sanjaya</t>
+  </si>
+  <si>
+    <t>ssanjaya@kemana.com</t>
+  </si>
+  <si>
+    <t>Shinta Octavia</t>
+  </si>
+  <si>
+    <t>soctavia@kemana.com</t>
+  </si>
+  <si>
+    <t>Sidik Purnomo</t>
+  </si>
+  <si>
+    <t>spurnomo@kemana.com</t>
+  </si>
+  <si>
+    <t>Simon Petrus</t>
+  </si>
+  <si>
+    <t>spetrus@kemana.com</t>
+  </si>
+  <si>
+    <t>Sonny Ariestiawan</t>
+  </si>
+  <si>
+    <t>sariestiawan@kemana.com</t>
+  </si>
+  <si>
+    <t>Syahfitria Syarifuddin</t>
+  </si>
+  <si>
+    <t>ssyarifuddin@kemana.com</t>
+  </si>
+  <si>
+    <t>Tata Arpandi</t>
+  </si>
+  <si>
+    <t>tarpandi@kemana.com</t>
+  </si>
+  <si>
+    <t>Taufik Maulana Nugraha</t>
+  </si>
+  <si>
+    <t>tmnugraha@kemana.com</t>
+  </si>
+  <si>
+    <t>Taupik Otto Ismail</t>
+  </si>
+  <si>
+    <t>toismail@kemana.com</t>
   </si>
 </sst>
 </file>
@@ -398,7 +674,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +682,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,56 +698,788 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>83821716492</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C2"/>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>85113546856</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>165715274651</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="s">
         <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
